--- a/sonuclar.xlsx
+++ b/sonuclar.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="246">
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Göğüs No</t>
   </si>
   <si>
     <t>Ad</t>
@@ -1089,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,13 +1114,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>758</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1917</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1125,11 +1131,10 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>311</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2">
-        <f>E2-250</f>
         <v>61</v>
       </c>
     </row>
@@ -1137,8 +1142,8 @@
       <c r="A3">
         <v>1619</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>2311</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1146,11 +1151,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>411</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">E3-250</f>
         <v>161</v>
       </c>
     </row>
@@ -1158,20 +1162,19 @@
       <c r="A4">
         <v>1108</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4">
+        <v>2337</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>408</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
@@ -1179,20 +1182,19 @@
       <c r="A5">
         <v>643</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>2034</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>339</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -1200,20 +1202,19 @@
       <c r="A6">
         <v>2101</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="B6">
+        <v>2833</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>389</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>139</v>
       </c>
     </row>
@@ -1221,20 +1222,19 @@
       <c r="A7">
         <v>1146</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>278</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -1242,20 +1242,19 @@
       <c r="A8">
         <v>1805</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8">
+        <v>2352</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>358</v>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -1263,20 +1262,19 @@
       <c r="A9">
         <v>1471</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>1584</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>301</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -1284,20 +1282,19 @@
       <c r="A10">
         <v>1838</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
+      <c r="B10">
+        <v>2180</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>331</v>
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -1305,20 +1302,19 @@
       <c r="A11">
         <v>2251</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11">
+        <v>3338</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>359</v>
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -1326,20 +1322,19 @@
       <c r="A12">
         <v>680</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="B12">
+        <v>2230</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>315</v>
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -1347,20 +1342,19 @@
       <c r="A13">
         <v>2066</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="B13">
+        <v>3187</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>345</v>
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -1368,20 +1362,19 @@
       <c r="A14">
         <v>2097</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="B14">
+        <v>2848</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>253</v>
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1389,20 +1382,19 @@
       <c r="A15">
         <v>3863</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="B15">
+        <v>4106</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>349</v>
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
@@ -1410,20 +1402,19 @@
       <c r="A16">
         <v>3872</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
+      <c r="B16">
+        <v>4115</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>291</v>
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -1431,20 +1422,19 @@
       <c r="A17">
         <v>1727</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17">
+        <v>2213</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>276</v>
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -1452,20 +1442,19 @@
       <c r="A18">
         <v>866</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
+      <c r="B18">
+        <v>1947</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>285</v>
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -1473,20 +1462,19 @@
       <c r="A19">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
+      <c r="B19">
+        <v>1612</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>288</v>
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -1494,20 +1482,19 @@
       <c r="A20">
         <v>2312</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
+      <c r="B20">
+        <v>3275</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>294</v>
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -1515,20 +1502,19 @@
       <c r="A21">
         <v>527</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="B21">
+        <v>1036</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>272</v>
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -1536,20 +1522,19 @@
       <c r="A22">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="B22">
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>268</v>
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -1557,20 +1542,19 @@
       <c r="A23">
         <v>374</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
+      <c r="B23">
+        <v>1894</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1578,20 +1562,19 @@
       <c r="A24">
         <v>2117</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="B24">
+        <v>3225</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>261</v>
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -1599,20 +1582,19 @@
       <c r="A25">
         <v>1277</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
+      <c r="B25">
+        <v>889</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>274</v>
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -1620,20 +1602,19 @@
       <c r="A26">
         <v>2228</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
+      <c r="B26">
+        <v>3327</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>251</v>
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1641,20 +1622,19 @@
       <c r="A27">
         <v>860</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="B27">
+        <v>258</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>255</v>
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1662,20 +1642,19 @@
       <c r="A28">
         <v>698</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
+      <c r="B28">
+        <v>2207</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>252</v>
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1683,20 +1662,19 @@
       <c r="A29">
         <v>3844</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="B29">
+        <v>4087</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>299</v>
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -1704,20 +1682,19 @@
       <c r="A30">
         <v>3876</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="B30">
+        <v>4119</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>350</v>
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1725,20 +1702,19 @@
       <c r="A31">
         <v>3817</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31">
+        <v>4055</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>270</v>
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1746,20 +1722,19 @@
       <c r="A32">
         <v>3725</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
+      <c r="B32">
+        <v>3902</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>391</v>
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
@@ -1767,20 +1742,19 @@
       <c r="A33">
         <v>3878</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
+      <c r="B33">
+        <v>4121</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>382</v>
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
@@ -1788,20 +1762,19 @@
       <c r="A34">
         <v>3733</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
+      <c r="B34">
+        <v>3911</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>423</v>
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
         <v>173</v>
       </c>
     </row>
@@ -1809,20 +1782,19 @@
       <c r="A35">
         <v>3830</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
+      <c r="B35">
+        <v>4073</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>422</v>
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
         <v>172</v>
       </c>
     </row>
@@ -1830,20 +1802,19 @@
       <c r="A36">
         <v>3866</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
+      <c r="B36">
+        <v>4109</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>421</v>
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
         <v>171</v>
       </c>
     </row>
@@ -1851,20 +1822,19 @@
       <c r="A37">
         <v>1039</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
+      <c r="B37">
+        <v>766</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>409</v>
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
         <v>159</v>
       </c>
     </row>
@@ -1872,20 +1842,19 @@
       <c r="A38">
         <v>3888</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
+      <c r="B38">
+        <v>4131</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>420</v>
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
@@ -1893,20 +1862,19 @@
       <c r="A39">
         <v>3870</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
+      <c r="B39">
+        <v>4113</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>356</v>
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
@@ -1914,20 +1882,19 @@
       <c r="A40">
         <v>3875</v>
       </c>
-      <c r="B40" t="s">
-        <v>52</v>
+      <c r="B40">
+        <v>4118</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>324</v>
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -1935,20 +1902,19 @@
       <c r="A41">
         <v>335</v>
       </c>
-      <c r="B41" t="s">
-        <v>82</v>
+      <c r="B41">
+        <v>1054</v>
       </c>
       <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>323</v>
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -1956,20 +1922,19 @@
       <c r="A42">
         <v>456</v>
       </c>
-      <c r="B42" t="s">
-        <v>84</v>
+      <c r="B42">
+        <v>262</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>396</v>
+        <v>86</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
         <v>146</v>
       </c>
     </row>
@@ -1977,20 +1942,19 @@
       <c r="A43">
         <v>3867</v>
       </c>
-      <c r="B43" t="s">
-        <v>86</v>
+      <c r="B43">
+        <v>4110</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
-        <v>417</v>
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
         <v>167</v>
       </c>
     </row>
@@ -1998,20 +1962,19 @@
       <c r="A44">
         <v>3868</v>
       </c>
-      <c r="B44" t="s">
-        <v>88</v>
+      <c r="B44">
+        <v>4111</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>418</v>
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
         <v>168</v>
       </c>
     </row>
@@ -2019,20 +1982,19 @@
       <c r="A45">
         <v>3740</v>
       </c>
-      <c r="B45" t="s">
-        <v>89</v>
+      <c r="B45">
+        <v>3918</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>415</v>
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
@@ -2040,20 +2002,19 @@
       <c r="A46">
         <v>3739</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
+      <c r="B46">
+        <v>3917</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>387</v>
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
@@ -2061,20 +2022,19 @@
       <c r="A47">
         <v>3848</v>
       </c>
-      <c r="B47" t="s">
-        <v>93</v>
+      <c r="B47">
+        <v>4091</v>
       </c>
       <c r="C47" t="s">
         <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>394</v>
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
     </row>
@@ -2082,20 +2042,19 @@
       <c r="A48">
         <v>3827</v>
       </c>
-      <c r="B48" t="s">
-        <v>95</v>
+      <c r="B48">
+        <v>4069</v>
       </c>
       <c r="C48" t="s">
         <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>395</v>
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
@@ -2103,20 +2062,19 @@
       <c r="A49">
         <v>1630</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
+      <c r="B49">
+        <v>1809</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>319</v>
+        <v>99</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -2124,20 +2082,19 @@
       <c r="A50">
         <v>2314</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
+      <c r="B50">
+        <v>1380</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <v>313</v>
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -2145,20 +2102,19 @@
       <c r="A51">
         <v>357</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
+      <c r="B51">
+        <v>1291</v>
       </c>
       <c r="C51" t="s">
         <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>337</v>
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
@@ -2166,20 +2122,19 @@
       <c r="A52">
         <v>3775</v>
       </c>
-      <c r="B52" t="s">
-        <v>95</v>
+      <c r="B52">
+        <v>4013</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>333</v>
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -2187,20 +2142,19 @@
       <c r="A53">
         <v>3813</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
+      <c r="B53">
+        <v>4051</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>347</v>
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -2208,20 +2162,19 @@
       <c r="A54">
         <v>3834</v>
       </c>
-      <c r="B54" t="s">
-        <v>106</v>
+      <c r="B54">
+        <v>4077</v>
       </c>
       <c r="C54" t="s">
         <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>312</v>
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -2229,20 +2182,19 @@
       <c r="A55">
         <v>143</v>
       </c>
-      <c r="B55" t="s">
-        <v>108</v>
+      <c r="B55">
+        <v>318</v>
       </c>
       <c r="C55" t="s">
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>3438</v>
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
         <v>3188</v>
       </c>
     </row>
@@ -2250,20 +2202,19 @@
       <c r="A56">
         <v>3809</v>
       </c>
-      <c r="B56" t="s">
-        <v>110</v>
+      <c r="B56">
+        <v>4047</v>
       </c>
       <c r="C56" t="s">
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>412</v>
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
         <v>162</v>
       </c>
     </row>
@@ -2271,20 +2222,19 @@
       <c r="A57">
         <v>3886</v>
       </c>
-      <c r="B57" t="s">
-        <v>112</v>
+      <c r="B57">
+        <v>4129</v>
       </c>
       <c r="C57" t="s">
         <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57">
-        <v>413</v>
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
         <v>163</v>
       </c>
     </row>
@@ -2292,20 +2242,19 @@
       <c r="A58">
         <v>3885</v>
       </c>
-      <c r="B58" t="s">
-        <v>114</v>
+      <c r="B58">
+        <v>4128</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58">
-        <v>406</v>
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
         <v>156</v>
       </c>
     </row>
@@ -2313,20 +2262,19 @@
       <c r="A59">
         <v>3726</v>
       </c>
-      <c r="B59" t="s">
-        <v>115</v>
+      <c r="B59">
+        <v>3903</v>
       </c>
       <c r="C59" t="s">
         <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>410</v>
+        <v>117</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -2334,20 +2282,19 @@
       <c r="A60">
         <v>3765</v>
       </c>
-      <c r="B60" t="s">
-        <v>117</v>
+      <c r="B60">
+        <v>4002</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60">
-        <v>385</v>
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
@@ -2355,20 +2302,19 @@
       <c r="A61">
         <v>3772</v>
       </c>
-      <c r="B61" t="s">
-        <v>119</v>
+      <c r="B61">
+        <v>4010</v>
       </c>
       <c r="C61" t="s">
         <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>403</v>
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
         <v>153</v>
       </c>
     </row>
@@ -2376,20 +2322,19 @@
       <c r="A62">
         <v>417</v>
       </c>
-      <c r="B62" t="s">
-        <v>121</v>
+      <c r="B62">
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62">
-        <v>329</v>
+        <v>123</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -2397,20 +2342,19 @@
       <c r="A63">
         <v>1244</v>
       </c>
-      <c r="B63" t="s">
-        <v>123</v>
+      <c r="B63">
+        <v>659</v>
       </c>
       <c r="C63" t="s">
         <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63">
-        <v>296</v>
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -2418,20 +2362,19 @@
       <c r="A64">
         <v>1014</v>
       </c>
-      <c r="B64" t="s">
-        <v>125</v>
+      <c r="B64">
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64">
-        <v>399</v>
+        <v>127</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
         <v>149</v>
       </c>
     </row>
@@ -2439,20 +2382,19 @@
       <c r="A65">
         <v>3489</v>
       </c>
-      <c r="B65" t="s">
-        <v>127</v>
+      <c r="B65">
+        <v>3528</v>
       </c>
       <c r="C65" t="s">
         <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>303</v>
+        <v>129</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -2460,20 +2402,19 @@
       <c r="A66">
         <v>3778</v>
       </c>
-      <c r="B66" t="s">
-        <v>129</v>
+      <c r="B66">
+        <v>4016</v>
       </c>
       <c r="C66" t="s">
         <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <v>381</v>
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
@@ -2481,20 +2422,19 @@
       <c r="A67">
         <v>3851</v>
       </c>
-      <c r="B67" t="s">
-        <v>131</v>
+      <c r="B67">
+        <v>4094</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>325</v>
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F129" si="1">E67-250</f>
         <v>75</v>
       </c>
     </row>
@@ -2502,20 +2442,19 @@
       <c r="A68">
         <v>3874</v>
       </c>
-      <c r="B68" t="s">
-        <v>133</v>
+      <c r="B68">
+        <v>4117</v>
       </c>
       <c r="C68" t="s">
         <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <v>336</v>
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -2523,20 +2462,19 @@
       <c r="A69">
         <v>3790</v>
       </c>
-      <c r="B69" t="s">
-        <v>135</v>
+      <c r="B69">
+        <v>4028</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69">
-        <v>321</v>
+        <v>136</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -2544,20 +2482,19 @@
       <c r="A70">
         <v>125</v>
       </c>
-      <c r="B70" t="s">
-        <v>136</v>
+      <c r="B70">
+        <v>2179</v>
       </c>
       <c r="C70" t="s">
         <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>398</v>
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
@@ -2565,20 +2502,19 @@
       <c r="A71">
         <v>3779</v>
       </c>
-      <c r="B71" t="s">
-        <v>138</v>
+      <c r="B71">
+        <v>396</v>
       </c>
       <c r="C71" t="s">
         <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>328</v>
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
@@ -2586,20 +2522,19 @@
       <c r="A72">
         <v>3531</v>
       </c>
-      <c r="B72" t="s">
-        <v>18</v>
+      <c r="B72">
+        <v>3538</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>338</v>
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -2607,20 +2542,19 @@
       <c r="A73">
         <v>3854</v>
       </c>
-      <c r="B73" t="s">
-        <v>141</v>
+      <c r="B73">
+        <v>4097</v>
       </c>
       <c r="C73" t="s">
         <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73">
-        <v>388</v>
+        <v>143</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
     </row>
@@ -2628,20 +2562,19 @@
       <c r="A74">
         <v>3887</v>
       </c>
-      <c r="B74" t="s">
-        <v>143</v>
+      <c r="B74">
+        <v>4130</v>
       </c>
       <c r="C74" t="s">
         <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74">
-        <v>327</v>
+        <v>145</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
@@ -2649,20 +2582,19 @@
       <c r="A75">
         <v>2213</v>
       </c>
-      <c r="B75" t="s">
-        <v>145</v>
+      <c r="B75">
+        <v>3427</v>
       </c>
       <c r="C75" t="s">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>390</v>
+        <v>147</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -2670,20 +2602,19 @@
       <c r="A76">
         <v>3858</v>
       </c>
-      <c r="B76" t="s">
-        <v>147</v>
+      <c r="B76">
+        <v>4101</v>
       </c>
       <c r="C76" t="s">
         <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76">
-        <v>320</v>
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -2691,20 +2622,19 @@
       <c r="A77">
         <v>2129</v>
       </c>
-      <c r="B77" t="s">
-        <v>149</v>
+      <c r="B77">
+        <v>3183</v>
       </c>
       <c r="C77" t="s">
         <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>384</v>
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
@@ -2712,20 +2642,19 @@
       <c r="A78">
         <v>886</v>
       </c>
-      <c r="B78" t="s">
-        <v>151</v>
+      <c r="B78">
+        <v>1887</v>
       </c>
       <c r="C78" t="s">
         <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78">
-        <v>343</v>
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -2733,20 +2662,19 @@
       <c r="A79">
         <v>2003</v>
       </c>
-      <c r="B79" t="s">
-        <v>153</v>
+      <c r="B79">
+        <v>3142</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79">
-        <v>380</v>
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
@@ -2754,20 +2682,19 @@
       <c r="A80">
         <v>3869</v>
       </c>
-      <c r="B80" t="s">
-        <v>155</v>
+      <c r="B80">
+        <v>4112</v>
       </c>
       <c r="C80" t="s">
         <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80">
-        <v>322</v>
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
@@ -2775,20 +2702,19 @@
       <c r="A81">
         <v>830</v>
       </c>
-      <c r="B81" t="s">
-        <v>157</v>
+      <c r="B81">
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81">
-        <v>386</v>
+        <v>95</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
@@ -2796,20 +2722,19 @@
       <c r="A82">
         <v>1926</v>
       </c>
-      <c r="B82" t="s">
-        <v>158</v>
+      <c r="B82">
+        <v>2927</v>
       </c>
       <c r="C82" t="s">
         <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82">
-        <v>375</v>
+        <v>160</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
@@ -2817,20 +2742,19 @@
       <c r="A83">
         <v>2092</v>
       </c>
-      <c r="B83" t="s">
-        <v>160</v>
+      <c r="B83">
+        <v>2954</v>
       </c>
       <c r="C83" t="s">
         <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>379</v>
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
@@ -2838,20 +2762,19 @@
       <c r="A84">
         <v>1933</v>
       </c>
-      <c r="B84" t="s">
-        <v>162</v>
+      <c r="B84">
+        <v>2793</v>
       </c>
       <c r="C84" t="s">
         <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84">
-        <v>383</v>
+        <v>164</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
@@ -2859,20 +2782,19 @@
       <c r="A85">
         <v>1363</v>
       </c>
-      <c r="B85" t="s">
-        <v>164</v>
+      <c r="B85">
+        <v>3994</v>
       </c>
       <c r="C85" t="s">
         <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>273</v>
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -2880,20 +2802,19 @@
       <c r="A86">
         <v>3838</v>
       </c>
-      <c r="B86" t="s">
-        <v>166</v>
+      <c r="B86">
+        <v>4081</v>
       </c>
       <c r="C86" t="s">
         <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86">
-        <v>374</v>
+        <v>168</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
@@ -2901,20 +2822,19 @@
       <c r="A87">
         <v>3815</v>
       </c>
-      <c r="B87" t="s">
-        <v>168</v>
+      <c r="B87">
+        <v>4053</v>
       </c>
       <c r="C87" t="s">
         <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87">
-        <v>4053</v>
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
         <v>3803</v>
       </c>
     </row>
@@ -2922,20 +2842,19 @@
       <c r="A88">
         <v>195</v>
       </c>
-      <c r="B88" t="s">
-        <v>170</v>
+      <c r="B88">
+        <v>2109</v>
       </c>
       <c r="C88" t="s">
         <v>171</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88">
-        <v>266</v>
+        <v>172</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2943,20 +2862,19 @@
       <c r="A89">
         <v>2135</v>
       </c>
-      <c r="B89" t="s">
-        <v>172</v>
+      <c r="B89">
+        <v>3303</v>
       </c>
       <c r="C89" t="s">
         <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89">
-        <v>377</v>
+        <v>174</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
@@ -2964,20 +2882,19 @@
       <c r="A90">
         <v>3749</v>
       </c>
-      <c r="B90" t="s">
-        <v>174</v>
+      <c r="B90">
+        <v>3928</v>
       </c>
       <c r="C90" t="s">
         <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90">
-        <v>373</v>
+        <v>176</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
@@ -2985,20 +2902,19 @@
       <c r="A91">
         <v>3505</v>
       </c>
-      <c r="B91" t="s">
-        <v>176</v>
+      <c r="B91">
+        <v>3527</v>
       </c>
       <c r="C91" t="s">
         <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>371</v>
+        <v>178</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
@@ -3006,20 +2922,19 @@
       <c r="A92">
         <v>3807</v>
       </c>
-      <c r="B92" t="s">
-        <v>178</v>
+      <c r="B92">
+        <v>4045</v>
       </c>
       <c r="C92" t="s">
         <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92">
-        <v>368</v>
+        <v>180</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
@@ -3027,20 +2942,19 @@
       <c r="A93">
         <v>1133</v>
       </c>
-      <c r="B93" t="s">
-        <v>78</v>
+      <c r="B93">
+        <v>4003</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93">
-        <v>372</v>
+        <v>64</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -3048,20 +2962,19 @@
       <c r="A94">
         <v>3734</v>
       </c>
-      <c r="B94" t="s">
-        <v>180</v>
+      <c r="B94">
+        <v>3912</v>
       </c>
       <c r="C94" t="s">
         <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94">
-        <v>344</v>
+        <v>182</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -3069,20 +2982,19 @@
       <c r="A95">
         <v>3852</v>
       </c>
-      <c r="B95" t="s">
-        <v>182</v>
+      <c r="B95">
+        <v>4095</v>
       </c>
       <c r="C95" t="s">
         <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95">
-        <v>305</v>
+        <v>184</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -3090,20 +3002,19 @@
       <c r="A96">
         <v>1177</v>
       </c>
-      <c r="B96" t="s">
-        <v>184</v>
+      <c r="B96">
+        <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>4000</v>
+        <v>186</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
         <v>3750</v>
       </c>
     </row>
@@ -3111,20 +3022,19 @@
       <c r="A97">
         <v>1025</v>
       </c>
-      <c r="B97" t="s">
-        <v>186</v>
+      <c r="B97">
+        <v>243</v>
       </c>
       <c r="C97" t="s">
         <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>298</v>
+        <v>188</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -3132,20 +3042,19 @@
       <c r="A98">
         <v>3541</v>
       </c>
-      <c r="B98" t="s">
-        <v>188</v>
+      <c r="B98">
+        <v>3513</v>
       </c>
       <c r="C98" t="s">
         <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>271</v>
+        <v>190</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -3153,20 +3062,19 @@
       <c r="A99">
         <v>3694</v>
       </c>
-      <c r="B99" t="s">
-        <v>190</v>
+      <c r="B99">
+        <v>3966</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99">
-        <v>284</v>
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -3174,20 +3082,19 @@
       <c r="A100">
         <v>3860</v>
       </c>
-      <c r="B100" t="s">
-        <v>192</v>
+      <c r="B100">
+        <v>4103</v>
       </c>
       <c r="C100" t="s">
         <v>193</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100">
-        <v>281</v>
+        <v>194</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -3195,20 +3102,19 @@
       <c r="A101">
         <v>3782</v>
       </c>
-      <c r="B101" t="s">
-        <v>194</v>
+      <c r="B101">
+        <v>4020</v>
       </c>
       <c r="C101" t="s">
         <v>195</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>275</v>
+        <v>196</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -3216,20 +3122,19 @@
       <c r="A102">
         <v>3849</v>
       </c>
-      <c r="B102" t="s">
-        <v>141</v>
+      <c r="B102">
+        <v>4092</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102">
-        <v>283</v>
+        <v>197</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -3237,20 +3142,19 @@
       <c r="A103">
         <v>3497</v>
       </c>
-      <c r="B103" t="s">
-        <v>197</v>
+      <c r="B103">
+        <v>3516</v>
       </c>
       <c r="C103" t="s">
         <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103">
-        <v>262</v>
+        <v>199</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -3258,20 +3162,19 @@
       <c r="A104">
         <v>3859</v>
       </c>
-      <c r="B104" t="s">
-        <v>73</v>
+      <c r="B104">
+        <v>4102</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104">
-        <v>351</v>
+        <v>200</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -3279,20 +3182,19 @@
       <c r="A105">
         <v>3846</v>
       </c>
-      <c r="B105" t="s">
-        <v>200</v>
+      <c r="B105">
+        <v>4089</v>
       </c>
       <c r="C105" t="s">
         <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105">
-        <v>370</v>
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -3300,20 +3202,19 @@
       <c r="A106">
         <v>2045</v>
       </c>
-      <c r="B106" t="s">
-        <v>202</v>
+      <c r="B106">
+        <v>2667</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106">
-        <v>363</v>
+        <v>204</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -3321,20 +3222,19 @@
       <c r="A107">
         <v>3768</v>
       </c>
-      <c r="B107" t="s">
-        <v>204</v>
+      <c r="B107">
+        <v>4006</v>
       </c>
       <c r="C107" t="s">
         <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107">
-        <v>369</v>
+        <v>206</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
@@ -3342,20 +3242,19 @@
       <c r="A108">
         <v>769</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
+      <c r="B108">
+        <v>177</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108">
-        <v>314</v>
+        <v>207</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -3363,20 +3262,19 @@
       <c r="A109">
         <v>1913</v>
       </c>
-      <c r="B109" t="s">
-        <v>207</v>
+      <c r="B109">
+        <v>2839</v>
       </c>
       <c r="C109" t="s">
         <v>208</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109">
-        <v>367</v>
+        <v>209</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
@@ -3384,20 +3282,19 @@
       <c r="A110">
         <v>1975</v>
       </c>
-      <c r="B110" t="s">
-        <v>209</v>
+      <c r="B110">
+        <v>2271</v>
       </c>
       <c r="C110" t="s">
         <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110">
-        <v>365</v>
+        <v>211</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
@@ -3405,20 +3302,19 @@
       <c r="A111">
         <v>3812</v>
       </c>
-      <c r="B111" t="s">
-        <v>211</v>
+      <c r="B111">
+        <v>4050</v>
       </c>
       <c r="C111" t="s">
         <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111">
-        <v>360</v>
+        <v>213</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -3426,20 +3322,19 @@
       <c r="A112">
         <v>3795</v>
       </c>
-      <c r="B112" t="s">
-        <v>213</v>
+      <c r="B112">
+        <v>4033</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112">
-        <v>355</v>
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -3447,20 +3342,19 @@
       <c r="A113">
         <v>3675</v>
       </c>
-      <c r="B113" t="s">
-        <v>214</v>
+      <c r="B113">
+        <v>3897</v>
       </c>
       <c r="C113" t="s">
         <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113">
-        <v>330</v>
+        <v>216</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -3468,20 +3362,19 @@
       <c r="A114">
         <v>3721</v>
       </c>
-      <c r="B114" t="s">
-        <v>216</v>
+      <c r="B114">
+        <v>3898</v>
       </c>
       <c r="C114" t="s">
         <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114">
-        <v>361</v>
+        <v>218</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
@@ -3489,20 +3382,19 @@
       <c r="A115">
         <v>588</v>
       </c>
-      <c r="B115" t="s">
-        <v>67</v>
+      <c r="B115">
+        <v>2630</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115">
-        <v>353</v>
+        <v>69</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -3510,20 +3402,19 @@
       <c r="A116">
         <v>1050</v>
       </c>
-      <c r="B116" t="s">
-        <v>218</v>
+      <c r="B116">
+        <v>1072</v>
       </c>
       <c r="C116" t="s">
         <v>219</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116">
-        <v>287</v>
+        <v>220</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -3531,20 +3422,19 @@
       <c r="A117">
         <v>3873</v>
       </c>
-      <c r="B117" t="s">
-        <v>220</v>
+      <c r="B117">
+        <v>4116</v>
       </c>
       <c r="C117" t="s">
         <v>221</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117">
-        <v>293</v>
+        <v>222</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
@@ -3552,20 +3442,19 @@
       <c r="A118">
         <v>684</v>
       </c>
-      <c r="B118" t="s">
-        <v>222</v>
+      <c r="B118">
+        <v>2663</v>
       </c>
       <c r="C118" t="s">
         <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118">
-        <v>304</v>
+        <v>224</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -3573,20 +3462,19 @@
       <c r="A119">
         <v>3816</v>
       </c>
-      <c r="B119" t="s">
-        <v>224</v>
+      <c r="B119">
+        <v>4054</v>
       </c>
       <c r="C119" t="s">
         <v>225</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119">
-        <v>306</v>
+        <v>226</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
@@ -3594,20 +3482,19 @@
       <c r="A120">
         <v>3794</v>
       </c>
-      <c r="B120" t="s">
-        <v>226</v>
+      <c r="B120">
+        <v>4032</v>
       </c>
       <c r="C120" t="s">
         <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120">
-        <v>302</v>
+        <v>228</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -3615,20 +3502,19 @@
       <c r="A121">
         <v>210</v>
       </c>
-      <c r="B121" t="s">
-        <v>228</v>
+      <c r="B121">
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>229</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121">
-        <v>280</v>
+        <v>230</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3636,20 +3522,19 @@
       <c r="A122">
         <v>3783</v>
       </c>
-      <c r="B122" t="s">
-        <v>230</v>
+      <c r="B122">
+        <v>4021</v>
       </c>
       <c r="C122" t="s">
         <v>231</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122">
-        <v>307</v>
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -3657,20 +3542,19 @@
       <c r="A123">
         <v>829</v>
       </c>
-      <c r="B123" t="s">
-        <v>232</v>
+      <c r="B123">
+        <v>1820</v>
       </c>
       <c r="C123" t="s">
         <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123">
-        <v>295</v>
+        <v>234</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -3678,20 +3562,19 @@
       <c r="A124">
         <v>3826</v>
       </c>
-      <c r="B124" t="s">
-        <v>234</v>
+      <c r="B124">
+        <v>4068</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124">
-        <v>290</v>
+        <v>97</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -3699,20 +3582,19 @@
       <c r="A125">
         <v>1994</v>
       </c>
-      <c r="B125" t="s">
-        <v>235</v>
+      <c r="B125">
+        <v>2958</v>
       </c>
       <c r="C125" t="s">
         <v>236</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125">
-        <v>341</v>
+        <v>237</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -3720,20 +3602,19 @@
       <c r="A126">
         <v>841</v>
       </c>
-      <c r="B126" t="s">
-        <v>237</v>
+      <c r="B126">
+        <v>397</v>
       </c>
       <c r="C126" t="s">
         <v>238</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126">
-        <v>352</v>
+        <v>239</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -3741,20 +3622,19 @@
       <c r="A127">
         <v>1995</v>
       </c>
-      <c r="B127" t="s">
-        <v>239</v>
+      <c r="B127">
+        <v>2757</v>
       </c>
       <c r="C127" t="s">
         <v>240</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127">
-        <v>264</v>
+        <v>241</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -3762,20 +3642,19 @@
       <c r="A128">
         <v>851</v>
       </c>
-      <c r="B128" t="s">
-        <v>241</v>
+      <c r="B128">
+        <v>1749</v>
       </c>
       <c r="C128" t="s">
         <v>242</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128">
-        <v>258</v>
+        <v>243</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3783,20 +3662,19 @@
       <c r="A129">
         <v>2078</v>
       </c>
-      <c r="B129" t="s">
-        <v>243</v>
+      <c r="B129">
+        <v>3126</v>
       </c>
       <c r="C129" t="s">
         <v>244</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129">
-        <v>364</v>
+        <v>245</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>

--- a/sonuclar.xlsx
+++ b/sonuclar.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="23340" windowHeight="9405"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sonuclar" sheetId="1" r:id="rId1"/>
+    <sheet name="Sonuclar" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -343,12 +340,6 @@
     <t>Bingül</t>
   </si>
   <si>
-    <t>Beril</t>
-  </si>
-  <si>
-    <t>Başlıgil</t>
-  </si>
-  <si>
     <t>Aykut</t>
   </si>
   <si>
@@ -679,12 +670,6 @@
     <t>Sarıkaya</t>
   </si>
   <si>
-    <t>Ilgaz</t>
-  </si>
-  <si>
-    <t>Kuruyazıcı</t>
-  </si>
-  <si>
     <t>MEHMET</t>
   </si>
   <si>
@@ -752,15 +737,70 @@
   </si>
   <si>
     <t>ERGENE</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Kocaman</t>
+  </si>
+  <si>
+    <t>Coşkun</t>
+  </si>
+  <si>
+    <t>Akan</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Buğan</t>
+  </si>
+  <si>
+    <t>Serhat</t>
+  </si>
+  <si>
+    <t>Kerman</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Özer</t>
+  </si>
+  <si>
+    <t>LEVENT</t>
+  </si>
+  <si>
+    <t>SOYKUT</t>
+  </si>
+  <si>
+    <t>Gökhan</t>
+  </si>
+  <si>
+    <t>Karpuz</t>
+  </si>
+  <si>
+    <t>Ayşin Özer</t>
+  </si>
+  <si>
+    <t>Başkır</t>
+  </si>
+  <si>
+    <t>Eda Duygu</t>
+  </si>
+  <si>
+    <t>Erkal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -772,7 +812,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -790,315 +830,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
-  <a:themeElements>
-    <a:clrScheme name="Ofis">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Ofis">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Ofis">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1118,12 +861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>758</v>
-      </c>
-      <c r="B2">
-        <v>1917</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>758.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1917.0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1134,16 +877,16 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1619</v>
-      </c>
-      <c r="B3">
-        <v>2311</v>
+      <c r="F2" t="n">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1619.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2311.0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1154,16 +897,16 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1108</v>
-      </c>
-      <c r="B4">
-        <v>2337</v>
+      <c r="F3" t="n">
+        <v>411.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2337.0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1174,16 +917,16 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>643</v>
-      </c>
-      <c r="B5">
-        <v>2034</v>
+      <c r="F4" t="n">
+        <v>408.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2034.0</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1194,16 +937,16 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2101</v>
-      </c>
-      <c r="B6">
-        <v>2833</v>
+      <c r="F5" t="n">
+        <v>339.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2101.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2833.0</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1214,16 +957,16 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1146</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
+      <c r="F6" t="n">
+        <v>389.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40.0</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1234,16 +977,16 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1805</v>
-      </c>
-      <c r="B8">
-        <v>2352</v>
+      <c r="F7" t="n">
+        <v>278.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2352.0</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1254,16 +997,16 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1471</v>
-      </c>
-      <c r="B9">
-        <v>1584</v>
+      <c r="F8" t="n">
+        <v>358.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1471.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1584.0</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1274,16 +1017,16 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1838</v>
-      </c>
-      <c r="B10">
-        <v>2180</v>
+      <c r="F9" t="n">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2180.0</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -1294,16 +1037,16 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2251</v>
-      </c>
-      <c r="B11">
-        <v>3338</v>
+      <c r="F10" t="n">
+        <v>331.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2251.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3338.0</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1314,16 +1057,16 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>680</v>
-      </c>
-      <c r="B12">
-        <v>2230</v>
+      <c r="F11" t="n">
+        <v>359.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2230.0</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1334,16 +1077,16 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2066</v>
-      </c>
-      <c r="B13">
-        <v>3187</v>
+      <c r="F12" t="n">
+        <v>315.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2066.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3187.0</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1354,16 +1097,16 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2097</v>
-      </c>
-      <c r="B14">
-        <v>2848</v>
+      <c r="F13" t="n">
+        <v>345.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2097.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2848.0</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1374,16 +1117,16 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3863</v>
-      </c>
-      <c r="B15">
-        <v>4106</v>
+      <c r="F14" t="n">
+        <v>253.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3863.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4106.0</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1394,16 +1137,16 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3872</v>
-      </c>
-      <c r="B16">
-        <v>4115</v>
+      <c r="F15" t="n">
+        <v>349.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3872.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4115.0</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -1414,16 +1157,16 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1727</v>
-      </c>
-      <c r="B17">
-        <v>2213</v>
+      <c r="F16" t="n">
+        <v>293.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1727.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2213.0</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1434,16 +1177,16 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>866</v>
-      </c>
-      <c r="B18">
-        <v>1947</v>
+      <c r="F17" t="n">
+        <v>276.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>866.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1947.0</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -1454,16 +1197,16 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>67</v>
-      </c>
-      <c r="B19">
-        <v>1612</v>
+      <c r="F18" t="n">
+        <v>285.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1612.0</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -1474,16 +1217,16 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2312</v>
-      </c>
-      <c r="B20">
-        <v>3275</v>
+      <c r="F19" t="n">
+        <v>288.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2312.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3275.0</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -1494,16 +1237,16 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>527</v>
-      </c>
-      <c r="B21">
-        <v>1036</v>
+      <c r="F20" t="n">
+        <v>294.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1036.0</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -1514,16 +1257,16 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>49</v>
-      </c>
-      <c r="B22">
-        <v>119</v>
+      <c r="F21" t="n">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>119.0</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1534,16 +1277,16 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>374</v>
-      </c>
-      <c r="B23">
-        <v>1894</v>
+      <c r="F22" t="n">
+        <v>268.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1894.0</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -1554,16 +1297,16 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2117</v>
-      </c>
-      <c r="B24">
-        <v>3225</v>
+      <c r="F23" t="n">
+        <v>263.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2117.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3225.0</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -1574,16 +1317,16 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1277</v>
-      </c>
-      <c r="B25">
-        <v>889</v>
+      <c r="F24" t="n">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1277.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>889.0</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -1594,16 +1337,16 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2228</v>
-      </c>
-      <c r="B26">
-        <v>3327</v>
+      <c r="F25" t="n">
+        <v>274.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2228.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3327.0</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -1614,16 +1357,16 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>860</v>
-      </c>
-      <c r="B27">
-        <v>258</v>
+      <c r="F26" t="n">
+        <v>251.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>258.0</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1634,16 +1377,16 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>698</v>
-      </c>
-      <c r="B28">
-        <v>2207</v>
+      <c r="F27" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>698.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2207.0</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -1654,16 +1397,16 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3844</v>
-      </c>
-      <c r="B29">
-        <v>4087</v>
+      <c r="F28" t="n">
+        <v>252.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3844.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4087.0</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -1674,16 +1417,16 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3876</v>
-      </c>
-      <c r="B30">
-        <v>4119</v>
+      <c r="F29" t="n">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3876.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4119.0</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -1694,16 +1437,16 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3817</v>
-      </c>
-      <c r="B31">
-        <v>4055</v>
+      <c r="F30" t="n">
+        <v>352.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3817.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4055.0</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
@@ -1714,16 +1457,16 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3725</v>
-      </c>
-      <c r="B32">
-        <v>3902</v>
+      <c r="F31" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3725.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3902.0</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -1734,16 +1477,16 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3878</v>
-      </c>
-      <c r="B33">
-        <v>4121</v>
+      <c r="F32" t="n">
+        <v>391.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3878.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4121.0</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -1754,16 +1497,16 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F33">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3733</v>
-      </c>
-      <c r="B34">
-        <v>3911</v>
+      <c r="F33" t="n">
+        <v>382.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3733.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3911.0</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
@@ -1774,16 +1517,16 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3830</v>
-      </c>
-      <c r="B35">
-        <v>4073</v>
+      <c r="F34" t="n">
+        <v>423.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3830.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4073.0</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -1794,16 +1537,16 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3866</v>
-      </c>
-      <c r="B36">
-        <v>4109</v>
+      <c r="F35" t="n">
+        <v>422.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3866.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4109.0</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
@@ -1814,16 +1557,16 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1039</v>
-      </c>
-      <c r="B37">
-        <v>766</v>
+      <c r="F36" t="n">
+        <v>421.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>766.0</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -1834,16 +1577,16 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3888</v>
-      </c>
-      <c r="B38">
-        <v>4131</v>
+      <c r="F37" t="n">
+        <v>409.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3888.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4131.0</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
@@ -1854,16 +1597,16 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3870</v>
-      </c>
-      <c r="B39">
-        <v>4113</v>
+      <c r="F38" t="n">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3870.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4113.0</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
@@ -1874,16 +1617,16 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="F39">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3875</v>
-      </c>
-      <c r="B40">
-        <v>4118</v>
+      <c r="F39" t="n">
+        <v>356.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3875.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4118.0</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -1894,16 +1637,16 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>335</v>
-      </c>
-      <c r="B41">
-        <v>1054</v>
+      <c r="F40" t="n">
+        <v>324.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1054.0</v>
       </c>
       <c r="C41" t="s">
         <v>83</v>
@@ -1914,16 +1657,16 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="F41">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>456</v>
-      </c>
-      <c r="B42">
-        <v>262</v>
+      <c r="F41" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>262.0</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
@@ -1934,16 +1677,16 @@
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3867</v>
-      </c>
-      <c r="B43">
-        <v>4110</v>
+      <c r="F42" t="n">
+        <v>396.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3867.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4110.0</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
@@ -1954,16 +1697,16 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="F43">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3868</v>
-      </c>
-      <c r="B44">
-        <v>4111</v>
+      <c r="F43" t="n">
+        <v>417.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3868.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4111.0</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -1974,16 +1717,16 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3740</v>
-      </c>
-      <c r="B45">
-        <v>3918</v>
+      <c r="F44" t="n">
+        <v>418.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3740.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3918.0</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
@@ -1994,16 +1737,16 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F45">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3739</v>
-      </c>
-      <c r="B46">
-        <v>3917</v>
+      <c r="F45" t="n">
+        <v>415.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3739.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3917.0</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
@@ -2014,16 +1757,16 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3848</v>
-      </c>
-      <c r="B47">
-        <v>4091</v>
+      <c r="F46" t="n">
+        <v>387.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3848.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4091.0</v>
       </c>
       <c r="C47" t="s">
         <v>94</v>
@@ -2034,16 +1777,16 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3827</v>
-      </c>
-      <c r="B48">
-        <v>4069</v>
+      <c r="F47" t="n">
+        <v>394.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3827.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4069.0</v>
       </c>
       <c r="C48" t="s">
         <v>96</v>
@@ -2054,16 +1797,16 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1630</v>
-      </c>
-      <c r="B49">
-        <v>1809</v>
+      <c r="F48" t="n">
+        <v>398.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1630.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1809.0</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
@@ -2074,16 +1817,16 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2314</v>
-      </c>
-      <c r="B50">
-        <v>1380</v>
+      <c r="F49" t="n">
+        <v>319.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2314.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1380.0</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
@@ -2094,16 +1837,16 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>357</v>
-      </c>
-      <c r="B51">
-        <v>1291</v>
+      <c r="F50" t="n">
+        <v>313.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1291.0</v>
       </c>
       <c r="C51" t="s">
         <v>102</v>
@@ -2114,16 +1857,16 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>3775</v>
-      </c>
-      <c r="B52">
-        <v>4013</v>
+      <c r="F51" t="n">
+        <v>337.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3775.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4013.0</v>
       </c>
       <c r="C52" t="s">
         <v>96</v>
@@ -2134,16 +1877,16 @@
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>3813</v>
-      </c>
-      <c r="B53">
-        <v>4051</v>
+      <c r="F52" t="n">
+        <v>333.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3813.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4051.0</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
@@ -2154,16 +1897,16 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F53">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3834</v>
-      </c>
-      <c r="B54">
-        <v>4077</v>
+      <c r="F53" t="n">
+        <v>347.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3834.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4077.0</v>
       </c>
       <c r="C54" t="s">
         <v>107</v>
@@ -2174,16 +1917,16 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>143</v>
-      </c>
-      <c r="B55">
-        <v>318</v>
+      <c r="F54" t="n">
+        <v>312.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3809.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4047.0</v>
       </c>
       <c r="C55" t="s">
         <v>109</v>
@@ -2192,18 +1935,18 @@
         <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>3809</v>
-      </c>
-      <c r="B56">
-        <v>4047</v>
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>412.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3886.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4129.0</v>
       </c>
       <c r="C56" t="s">
         <v>111</v>
@@ -2214,56 +1957,56 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-      <c r="F56">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>3886</v>
-      </c>
-      <c r="B57">
-        <v>4129</v>
+      <c r="F56" t="n">
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3885.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4128.0</v>
       </c>
       <c r="C57" t="s">
         <v>113</v>
       </c>
       <c r="D57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>406.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3726.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3903.0</v>
+      </c>
+      <c r="C58" t="s">
         <v>114</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>3885</v>
-      </c>
-      <c r="B58">
-        <v>4128</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>115</v>
       </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
       <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>3726</v>
-      </c>
-      <c r="B59">
-        <v>3903</v>
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>410.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3765.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4002.0</v>
       </c>
       <c r="C59" t="s">
         <v>116</v>
@@ -2272,18 +2015,18 @@
         <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>3765</v>
-      </c>
-      <c r="B60">
-        <v>4002</v>
+        <v>8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>385.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3772.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4010.0</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
@@ -2294,16 +2037,16 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F60">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>3772</v>
-      </c>
-      <c r="B61">
-        <v>4010</v>
+      <c r="F60" t="n">
+        <v>403.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>47.0</v>
       </c>
       <c r="C61" t="s">
         <v>120</v>
@@ -2314,16 +2057,16 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
-      <c r="F61">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>417</v>
-      </c>
-      <c r="B62">
-        <v>47</v>
+      <c r="F61" t="n">
+        <v>329.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1244.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>659.0</v>
       </c>
       <c r="C62" t="s">
         <v>122</v>
@@ -2334,16 +2077,16 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1244</v>
-      </c>
-      <c r="B63">
-        <v>659</v>
+      <c r="F62" t="n">
+        <v>296.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15.0</v>
       </c>
       <c r="C63" t="s">
         <v>124</v>
@@ -2354,16 +2097,16 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="F63">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1014</v>
-      </c>
-      <c r="B64">
-        <v>15</v>
+      <c r="F63" t="n">
+        <v>399.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3489.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3528.0</v>
       </c>
       <c r="C64" t="s">
         <v>126</v>
@@ -2372,18 +2115,18 @@
         <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>3489</v>
-      </c>
-      <c r="B65">
-        <v>3528</v>
+        <v>11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>303.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3778.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4016.0</v>
       </c>
       <c r="C65" t="s">
         <v>128</v>
@@ -2392,18 +2135,18 @@
         <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>3778</v>
-      </c>
-      <c r="B66">
-        <v>4016</v>
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>381.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3851.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4094.0</v>
       </c>
       <c r="C66" t="s">
         <v>130</v>
@@ -2414,16 +2157,16 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="F66">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>3851</v>
-      </c>
-      <c r="B67">
-        <v>4094</v>
+      <c r="F66" t="n">
+        <v>325.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3874.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4117.0</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
@@ -2432,41 +2175,41 @@
         <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>3874</v>
-      </c>
-      <c r="B68">
-        <v>4117</v>
+        <v>11</v>
+      </c>
+      <c r="F67" t="n">
+        <v>336.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3790.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4028.0</v>
       </c>
       <c r="C68" t="s">
         <v>134</v>
       </c>
       <c r="D68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>321.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2179.0</v>
+      </c>
+      <c r="C69" t="s">
         <v>135</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>3790</v>
-      </c>
-      <c r="B69">
-        <v>4028</v>
-      </c>
-      <c r="C69" t="s">
-        <v>136</v>
       </c>
       <c r="D69" t="s">
         <v>136</v>
@@ -2474,16 +2217,16 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>125</v>
-      </c>
-      <c r="B70">
-        <v>2179</v>
+      <c r="F69" t="n">
+        <v>398.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3779.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>396.0</v>
       </c>
       <c r="C70" t="s">
         <v>137</v>
@@ -2492,41 +2235,41 @@
         <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>3779</v>
-      </c>
-      <c r="B71">
-        <v>396</v>
+        <v>11</v>
+      </c>
+      <c r="F70" t="n">
+        <v>328.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3531.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3538.0</v>
       </c>
       <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>338.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3854.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4097.0</v>
+      </c>
+      <c r="C72" t="s">
         <v>140</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>3531</v>
-      </c>
-      <c r="B72">
-        <v>3538</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>141</v>
@@ -2534,16 +2277,16 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
-      <c r="F72">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>3854</v>
-      </c>
-      <c r="B73">
-        <v>4097</v>
+      <c r="F72" t="n">
+        <v>388.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3887.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4130.0</v>
       </c>
       <c r="C73" t="s">
         <v>142</v>
@@ -2554,16 +2297,16 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
-      <c r="F73">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3887</v>
-      </c>
-      <c r="B74">
-        <v>4130</v>
+      <c r="F73" t="n">
+        <v>327.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2213.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3427.0</v>
       </c>
       <c r="C74" t="s">
         <v>144</v>
@@ -2572,18 +2315,18 @@
         <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2213</v>
-      </c>
-      <c r="B75">
-        <v>3427</v>
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
+        <v>390.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3858.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4101.0</v>
       </c>
       <c r="C75" t="s">
         <v>146</v>
@@ -2592,18 +2335,18 @@
         <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>3858</v>
-      </c>
-      <c r="B76">
-        <v>4101</v>
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>320.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2129.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3183.0</v>
       </c>
       <c r="C76" t="s">
         <v>148</v>
@@ -2614,16 +2357,16 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="F76">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2129</v>
-      </c>
-      <c r="B77">
-        <v>3183</v>
+      <c r="F76" t="n">
+        <v>384.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>886.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1887.0</v>
       </c>
       <c r="C77" t="s">
         <v>150</v>
@@ -2632,18 +2375,18 @@
         <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>886</v>
-      </c>
-      <c r="B78">
-        <v>1887</v>
+        <v>11</v>
+      </c>
+      <c r="F77" t="n">
+        <v>343.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3142.0</v>
       </c>
       <c r="C78" t="s">
         <v>152</v>
@@ -2654,16 +2397,16 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2003</v>
-      </c>
-      <c r="B79">
-        <v>3142</v>
+      <c r="F78" t="n">
+        <v>380.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3869.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4112.0</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -2672,58 +2415,58 @@
         <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>3869</v>
-      </c>
-      <c r="B80">
-        <v>4112</v>
+        <v>8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>322.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>56.0</v>
       </c>
       <c r="C80" t="s">
         <v>156</v>
       </c>
       <c r="D80" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>386.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2927.0</v>
+      </c>
+      <c r="C81" t="s">
         <v>157</v>
       </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>830</v>
-      </c>
-      <c r="B81">
-        <v>56</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>158</v>
       </c>
-      <c r="D81" t="s">
-        <v>95</v>
-      </c>
       <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1926</v>
-      </c>
-      <c r="B82">
-        <v>2927</v>
+        <v>11</v>
+      </c>
+      <c r="F81" t="n">
+        <v>375.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2092.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2954.0</v>
       </c>
       <c r="C82" t="s">
         <v>159</v>
@@ -2732,18 +2475,18 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2092</v>
-      </c>
-      <c r="B83">
-        <v>2954</v>
+        <v>8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>379.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2793.0</v>
       </c>
       <c r="C83" t="s">
         <v>161</v>
@@ -2752,18 +2495,18 @@
         <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1933</v>
-      </c>
-      <c r="B84">
-        <v>2793</v>
+        <v>11</v>
+      </c>
+      <c r="F83" t="n">
+        <v>383.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3994.0</v>
       </c>
       <c r="C84" t="s">
         <v>163</v>
@@ -2772,18 +2515,18 @@
         <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1363</v>
-      </c>
-      <c r="B85">
-        <v>3994</v>
+        <v>8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>273.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3838.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4081.0</v>
       </c>
       <c r="C85" t="s">
         <v>165</v>
@@ -2794,16 +2537,16 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F85">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3838</v>
-      </c>
-      <c r="B86">
-        <v>4081</v>
+      <c r="F85" t="n">
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3815.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4053.0</v>
       </c>
       <c r="C86" t="s">
         <v>167</v>
@@ -2814,16 +2557,16 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="F86">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3815</v>
-      </c>
-      <c r="B87">
-        <v>4053</v>
+      <c r="F86" t="n">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2109.0</v>
       </c>
       <c r="C87" t="s">
         <v>169</v>
@@ -2834,16 +2577,16 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
-      <c r="F87">
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>195</v>
-      </c>
-      <c r="B88">
-        <v>2109</v>
+      <c r="F87" t="n">
+        <v>266.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2135.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3303.0</v>
       </c>
       <c r="C88" t="s">
         <v>171</v>
@@ -2854,16 +2597,16 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2135</v>
-      </c>
-      <c r="B89">
-        <v>3303</v>
+      <c r="F88" t="n">
+        <v>377.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3749.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3928.0</v>
       </c>
       <c r="C89" t="s">
         <v>173</v>
@@ -2872,18 +2615,18 @@
         <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>3749</v>
-      </c>
-      <c r="B90">
-        <v>3928</v>
+        <v>11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>373.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3505.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3527.0</v>
       </c>
       <c r="C90" t="s">
         <v>175</v>
@@ -2894,16 +2637,16 @@
       <c r="E90" t="s">
         <v>11</v>
       </c>
-      <c r="F90">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>3505</v>
-      </c>
-      <c r="B91">
-        <v>3527</v>
+      <c r="F90" t="n">
+        <v>371.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3807.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4045.0</v>
       </c>
       <c r="C91" t="s">
         <v>177</v>
@@ -2912,58 +2655,58 @@
         <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>3807</v>
-      </c>
-      <c r="B92">
-        <v>4045</v>
+        <v>8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>368.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1133.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4003.0</v>
       </c>
       <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>372.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3734.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3912.0</v>
+      </c>
+      <c r="C93" t="s">
         <v>179</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>180</v>
       </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1133</v>
-      </c>
-      <c r="B93">
-        <v>4003</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" t="s">
-        <v>64</v>
-      </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
-      <c r="F93">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3734</v>
-      </c>
-      <c r="B94">
-        <v>3912</v>
+      <c r="F93" t="n">
+        <v>344.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3852.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4095.0</v>
       </c>
       <c r="C94" t="s">
         <v>181</v>
@@ -2974,16 +2717,16 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="F94">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>3852</v>
-      </c>
-      <c r="B95">
-        <v>4095</v>
+      <c r="F94" t="n">
+        <v>305.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.0</v>
       </c>
       <c r="C95" t="s">
         <v>183</v>
@@ -2994,16 +2737,16 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="F95">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1177</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="F95" t="n">
+        <v>318.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1025.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>243.0</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
@@ -3014,16 +2757,16 @@
       <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="F96">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1025</v>
-      </c>
-      <c r="B97">
-        <v>243</v>
+      <c r="F96" t="n">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3541.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3513.0</v>
       </c>
       <c r="C97" t="s">
         <v>187</v>
@@ -3034,16 +2777,16 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3541</v>
-      </c>
-      <c r="B98">
-        <v>3513</v>
+      <c r="F97" t="n">
+        <v>271.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3694.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3966.0</v>
       </c>
       <c r="C98" t="s">
         <v>189</v>
@@ -3054,16 +2797,16 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="F98">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>3694</v>
-      </c>
-      <c r="B99">
-        <v>3966</v>
+      <c r="F98" t="n">
+        <v>284.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3860.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4103.0</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -3074,16 +2817,16 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3860</v>
-      </c>
-      <c r="B100">
-        <v>4103</v>
+      <c r="F99" t="n">
+        <v>281.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3782.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4020.0</v>
       </c>
       <c r="C100" t="s">
         <v>193</v>
@@ -3094,39 +2837,39 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="F100">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>3782</v>
-      </c>
-      <c r="B101">
-        <v>4020</v>
+      <c r="F100" t="n">
+        <v>275.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3849.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4092.0</v>
       </c>
       <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" t="s">
         <v>195</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>283.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3497.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3516.0</v>
+      </c>
+      <c r="C102" t="s">
         <v>196</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3849</v>
-      </c>
-      <c r="B102">
-        <v>4092</v>
-      </c>
-      <c r="C102" t="s">
-        <v>142</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -3134,39 +2877,39 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3497</v>
-      </c>
-      <c r="B103">
-        <v>3516</v>
+      <c r="F102" t="n">
+        <v>262.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3859.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4102.0</v>
       </c>
       <c r="C103" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" t="s">
         <v>198</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>351.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3846.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4089.0</v>
+      </c>
+      <c r="C104" t="s">
         <v>199</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3859</v>
-      </c>
-      <c r="B104">
-        <v>4102</v>
-      </c>
-      <c r="C104" t="s">
-        <v>74</v>
       </c>
       <c r="D104" t="s">
         <v>200</v>
@@ -3174,16 +2917,16 @@
       <c r="E104" t="s">
         <v>8</v>
       </c>
-      <c r="F104">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3846</v>
-      </c>
-      <c r="B105">
-        <v>4089</v>
+      <c r="F104" t="n">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2667.0</v>
       </c>
       <c r="C105" t="s">
         <v>201</v>
@@ -3194,16 +2937,16 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2045</v>
-      </c>
-      <c r="B106">
-        <v>2667</v>
+      <c r="F105" t="n">
+        <v>363.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3768.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4006.0</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
@@ -3214,39 +2957,39 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
-      <c r="F106">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3768</v>
-      </c>
-      <c r="B107">
-        <v>4006</v>
+      <c r="F106" t="n">
+        <v>369.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>177.0</v>
       </c>
       <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
         <v>205</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>314.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2839.0</v>
+      </c>
+      <c r="C108" t="s">
         <v>206</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>769</v>
-      </c>
-      <c r="B108">
-        <v>177</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>207</v>
@@ -3254,16 +2997,16 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F108">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1913</v>
-      </c>
-      <c r="B109">
-        <v>2839</v>
+      <c r="F108" t="n">
+        <v>367.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2271.0</v>
       </c>
       <c r="C109" t="s">
         <v>208</v>
@@ -3274,16 +3017,16 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="F109">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1975</v>
-      </c>
-      <c r="B110">
-        <v>2271</v>
+      <c r="F109" t="n">
+        <v>365.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3812.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4050.0</v>
       </c>
       <c r="C110" t="s">
         <v>210</v>
@@ -3294,56 +3037,56 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="F110">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>3812</v>
-      </c>
-      <c r="B111">
-        <v>4050</v>
+      <c r="F110" t="n">
+        <v>360.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3795.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4033.0</v>
       </c>
       <c r="C111" t="s">
         <v>212</v>
       </c>
       <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>355.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3675.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3897.0</v>
+      </c>
+      <c r="C112" t="s">
         <v>213</v>
       </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3795</v>
-      </c>
-      <c r="B112">
-        <v>4033</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>214</v>
       </c>
-      <c r="D112" t="s">
-        <v>46</v>
-      </c>
       <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3675</v>
-      </c>
-      <c r="B113">
-        <v>3897</v>
+        <v>11</v>
+      </c>
+      <c r="F112" t="n">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3721.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3898.0</v>
       </c>
       <c r="C113" t="s">
         <v>215</v>
@@ -3354,56 +3097,56 @@
       <c r="E113" t="s">
         <v>11</v>
       </c>
-      <c r="F113">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>3721</v>
-      </c>
-      <c r="B114">
-        <v>3898</v>
+      <c r="F113" t="n">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2630.0</v>
       </c>
       <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>353.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="C115" t="s">
         <v>217</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>218</v>
       </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>588</v>
-      </c>
-      <c r="B115">
-        <v>2630</v>
-      </c>
-      <c r="C115" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" t="s">
-        <v>69</v>
-      </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
-      <c r="F115">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1050</v>
-      </c>
-      <c r="B116">
-        <v>1072</v>
+      <c r="F115" t="n">
+        <v>287.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2663.0</v>
       </c>
       <c r="C116" t="s">
         <v>219</v>
@@ -3414,16 +3157,16 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
-      <c r="F116">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3873</v>
-      </c>
-      <c r="B117">
-        <v>4116</v>
+      <c r="F116" t="n">
+        <v>304.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3816.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4054.0</v>
       </c>
       <c r="C117" t="s">
         <v>221</v>
@@ -3434,16 +3177,16 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>684</v>
-      </c>
-      <c r="B118">
-        <v>2663</v>
+      <c r="F117" t="n">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3794.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4032.0</v>
       </c>
       <c r="C118" t="s">
         <v>223</v>
@@ -3454,16 +3197,16 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
-      <c r="F118">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>3816</v>
-      </c>
-      <c r="B119">
-        <v>4054</v>
+      <c r="F118" t="n">
+        <v>302.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.0</v>
       </c>
       <c r="C119" t="s">
         <v>225</v>
@@ -3474,16 +3217,16 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-      <c r="F119">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>3794</v>
-      </c>
-      <c r="B120">
-        <v>4032</v>
+      <c r="F119" t="n">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3783.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4021.0</v>
       </c>
       <c r="C120" t="s">
         <v>227</v>
@@ -3494,16 +3237,16 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-      <c r="F120">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>210</v>
-      </c>
-      <c r="B121">
-        <v>11</v>
+      <c r="F120" t="n">
+        <v>307.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1820.0</v>
       </c>
       <c r="C121" t="s">
         <v>229</v>
@@ -3514,76 +3257,76 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="F121">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>3783</v>
-      </c>
-      <c r="B122">
-        <v>4021</v>
+      <c r="F121" t="n">
+        <v>295.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3826.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4068.0</v>
       </c>
       <c r="C122" t="s">
         <v>231</v>
       </c>
       <c r="D122" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2958.0</v>
+      </c>
+      <c r="C123" t="s">
         <v>232</v>
       </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>829</v>
-      </c>
-      <c r="B123">
-        <v>1820</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>233</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>341.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>841.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="C124" t="s">
         <v>234</v>
       </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>3826</v>
-      </c>
-      <c r="B124">
-        <v>4068</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>235</v>
       </c>
-      <c r="D124" t="s">
-        <v>97</v>
-      </c>
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="F124">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1994</v>
-      </c>
-      <c r="B125">
-        <v>2958</v>
+      <c r="F124" t="n">
+        <v>354.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2757.0</v>
       </c>
       <c r="C125" t="s">
         <v>236</v>
@@ -3594,16 +3337,16 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
-      <c r="F125">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>841</v>
-      </c>
-      <c r="B126">
-        <v>397</v>
+      <c r="F125" t="n">
+        <v>264.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1749.0</v>
       </c>
       <c r="C126" t="s">
         <v>238</v>
@@ -3614,16 +3357,16 @@
       <c r="E126" t="s">
         <v>8</v>
       </c>
-      <c r="F126">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1995</v>
-      </c>
-      <c r="B127">
-        <v>2757</v>
+      <c r="F126" t="n">
+        <v>258.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2078.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3126.0</v>
       </c>
       <c r="C127" t="s">
         <v>240</v>
@@ -3632,18 +3375,18 @@
         <v>241</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>851</v>
-      </c>
-      <c r="B128">
-        <v>1749</v>
+        <v>11</v>
+      </c>
+      <c r="F127" t="n">
+        <v>364.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>926.0</v>
       </c>
       <c r="C128" t="s">
         <v>242</v>
@@ -3654,16 +3397,16 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
-      <c r="F128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>2078</v>
-      </c>
-      <c r="B129">
-        <v>3126</v>
+      <c r="F128" t="n">
+        <v>265.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2970.0</v>
       </c>
       <c r="C129" t="s">
         <v>244</v>
@@ -3672,13 +3415,173 @@
         <v>245</v>
       </c>
       <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>340.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>335.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1243.0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>248</v>
+      </c>
+      <c r="D131" t="s">
+        <v>249</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>362.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3862.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4105.0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>277.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>645.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2361.0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>252</v>
+      </c>
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>309.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3879.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4122.0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>254</v>
+      </c>
+      <c r="D134" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>409.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3791.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4029.0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" t="s">
+        <v>255</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>260.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2381.0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" t="s">
+        <v>257</v>
+      </c>
+      <c r="E136" t="s">
         <v>11</v>
       </c>
-      <c r="F129">
-        <v>114</v>
+      <c r="F136" t="n">
+        <v>292.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1071.0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" t="s">
+        <v>259</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="n">
+        <v>254.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>